--- a/dtpu_configurations/only_integer8/50mhz/mxu_6x6/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/50mhz/mxu_6x6/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>17.590227127075195</v>
+        <v>18.746240615844727</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>5.528735637664795</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.609962463378906</v>
+        <v>12.565790176391602</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>32.14285659790039</v>
+        <v>52.142860412597656</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>13.636363983154297</v>
